--- a/biology/Zoologie/Cephalopholis_miniata/Cephalopholis_miniata.xlsx
+++ b/biology/Zoologie/Cephalopholis_miniata/Cephalopholis_miniata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vieille de corail, Vieille étoilée, Mérou minium, Mérou rouge
 Cephalopholis miniata, communément nommé Vieille de corail ou Mérou rouge, est une espèce de poissons marins de la famille des Serranidae. Avec quatre autres espèces, il est parfois appelé Mérou rouge.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson très coloré peut mesurer jusqu'à 50 cm[1]. Il a un corps fusiforme avec un profil dorsal convexe, une tête pointue et les marges des nageoires arrondies. La coloration générale varie de l'orange pâle au rouge foncé (d'où son nom spécifique), parfois avec des barres verticales contrastées sur les flancs. Le corps et les nageoires sont couverts de points bleus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson très coloré peut mesurer jusqu'à 50 cm. Il a un corps fusiforme avec un profil dorsal convexe, une tête pointue et les marges des nageoires arrondies. La coloration générale varie de l'orange pâle au rouge foncé (d'où son nom spécifique), parfois avec des barres verticales contrastées sur les flancs. Le corps et les nageoires sont couverts de points bleus.
 Le juvénile est orange uni.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson est commun sur les récifs exposés au large entre 2 et 150 m de profondeur[2]. Le juvénile vit caché parmi les coraux.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson est commun sur les récifs exposés au large entre 2 et 150 m de profondeur. Le juvénile vit caché parmi les coraux.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit dans tout l'Indo/ ouest Pacifique de la Mer Rouge à la Micronésie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit dans tout l'Indo/ ouest Pacifique de la Mer Rouge à la Micronésie.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce consomme des poissons et des crustacés[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce consomme des poissons et des crustacés.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mâle domine un harem de deux à douze femelles, chacune défendant son propre territoire. La maturité sexuelle est atteinte à 25 cm.
 Cette espèce est hermaphrodite, une femelle pouvant se transformer en mâle. Les femelles d'un harem sont plus petites que le mâle.
@@ -669,9 +691,11 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalopholis miniata est inscrit en espèce de préoccupation mineure sur la liste rouge de l'UICN des espèces menacées, depuis 2008. La pression de la pêche, et notamment de la pêche à la dynamite, ainsi que la sédimentation dans certaines zones sont les motifs principaux[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalopholis miniata est inscrit en espèce de préoccupation mineure sur la liste rouge de l'UICN des espèces menacées, depuis 2008. La pression de la pêche, et notamment de la pêche à la dynamite, ainsi que la sédimentation dans certaines zones sont les motifs principaux.
 </t>
         </is>
       </c>
